--- a/proyecto/Casos de prueba.xlsx
+++ b/proyecto/Casos de prueba.xlsx
@@ -41,9 +41,6 @@
     <t>Version:</t>
   </si>
   <si>
-    <t>Python 4.11.3</t>
-  </si>
-  <si>
     <t>Escrito por:</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Carlos Lazzarotto</t>
+  </si>
+  <si>
+    <t>Python 3.12.5</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -537,7 +537,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -557,33 +557,33 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75">
@@ -591,48 +591,48 @@
     </row>
     <row r="6" spans="1:26" ht="15.75">
       <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:26">
       <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="8">
+        <v>45638</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="8">
-        <v>44651</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -656,25 +656,25 @@
     </row>
     <row r="8" spans="1:26" ht="30">
       <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="D8" s="8">
+        <v>45638</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="8">
-        <v>44651</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G8" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -698,25 +698,25 @@
     </row>
     <row r="9" spans="1:26" ht="30">
       <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="8">
+        <v>45638</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8">
-        <v>44651</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -740,69 +740,69 @@
     </row>
     <row r="10" spans="1:26" ht="30">
       <c r="A10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" s="8">
-        <v>44651</v>
+        <v>45638</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:26">
       <c r="A11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8">
+        <v>45638</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="8">
-        <v>44651</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="G11" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="30">
       <c r="A12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="8">
+        <v>45638</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="8">
-        <v>44651</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="F12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="G12" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:26">
